--- a/Template/03_01_Modelos_K_Means_df_score.xlsx
+++ b/Template/03_01_Modelos_K_Means_df_score.xlsx
@@ -530,7 +530,7 @@
         <v>1.444030621965556</v>
       </c>
       <c r="K3">
-        <v>501.5325553185403</v>
+        <v>501.5325553185404</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -556,16 +556,16 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>214.0726246688202</v>
+        <v>210.5814394043189</v>
       </c>
       <c r="I4">
-        <v>0.2744279853192659</v>
+        <v>0.2666753980235516</v>
       </c>
       <c r="J4">
-        <v>1.380862247013869</v>
+        <v>1.405134335871967</v>
       </c>
       <c r="K4">
-        <v>428.9943560631672</v>
+        <v>445.2470020384478</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -591,16 +591,16 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>190.8609489361227</v>
+        <v>190.9663969548823</v>
       </c>
       <c r="I5">
-        <v>0.2206927811917588</v>
+        <v>0.2183281133035542</v>
       </c>
       <c r="J5">
-        <v>1.380512735417798</v>
+        <v>1.392853268863816</v>
       </c>
       <c r="K5">
-        <v>410.9145616266508</v>
+        <v>410.4594736030968</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -626,16 +626,16 @@
         <v>6</v>
       </c>
       <c r="H6">
-        <v>174.9606736987407</v>
+        <v>174.8127527994355</v>
       </c>
       <c r="I6">
-        <v>0.2305143048392874</v>
+        <v>0.2306072690848056</v>
       </c>
       <c r="J6">
-        <v>1.359923233595702</v>
+        <v>1.357109419083144</v>
       </c>
       <c r="K6">
-        <v>388.4160226926811</v>
+        <v>389.0242615700452</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -661,16 +661,16 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>163.0949421226751</v>
+        <v>163.1850347725198</v>
       </c>
       <c r="I7">
-        <v>0.236822163688938</v>
+        <v>0.2357086905499762</v>
       </c>
       <c r="J7">
-        <v>1.289699909571869</v>
+        <v>1.349198162178691</v>
       </c>
       <c r="K7">
-        <v>367.0380378775188</v>
+        <v>366.6834837748348</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,16 +696,16 @@
         <v>8</v>
       </c>
       <c r="H8">
-        <v>151.4777743255232</v>
+        <v>151.8933055312315</v>
       </c>
       <c r="I8">
-        <v>0.2430713478195142</v>
+        <v>0.2422726320875999</v>
       </c>
       <c r="J8">
-        <v>1.280534756347451</v>
+        <v>1.290240573209994</v>
       </c>
       <c r="K8">
-        <v>356.6040020347686</v>
+        <v>354.9836098034527</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,16 +731,16 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>144.2736333317685</v>
+        <v>144.1581337152876</v>
       </c>
       <c r="I9">
-        <v>0.2478845100935954</v>
+        <v>0.2479495383418091</v>
       </c>
       <c r="J9">
-        <v>1.228587618282473</v>
+        <v>1.229604462633782</v>
       </c>
       <c r="K9">
-        <v>337.7033608037867</v>
+        <v>338.1390765382059</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,16 +766,16 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>137.5281144367742</v>
+        <v>137.4844506112183</v>
       </c>
       <c r="I10">
-        <v>0.2495169587319341</v>
+        <v>0.2494766664951155</v>
       </c>
       <c r="J10">
-        <v>1.273899087726738</v>
+        <v>1.277616013744366</v>
       </c>
       <c r="K10">
-        <v>323.6944387356331</v>
+        <v>323.8553956221812</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,16 +801,16 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <v>132.1774276009469</v>
+        <v>132.3720487015021</v>
       </c>
       <c r="I11">
-        <v>0.243033587466581</v>
+        <v>0.2413824634430722</v>
       </c>
       <c r="J11">
-        <v>1.312855246809105</v>
+        <v>1.319499117953659</v>
       </c>
       <c r="K11">
-        <v>309.6014545068998</v>
+        <v>308.9041088665132</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -871,16 +871,16 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>180545.1466913408</v>
+        <v>180665.9577201353</v>
       </c>
       <c r="I13">
-        <v>0.6764737101733925</v>
+        <v>0.7118976639203568</v>
       </c>
       <c r="J13">
-        <v>1.182288084672085</v>
+        <v>1.177046436779795</v>
       </c>
       <c r="K13">
-        <v>569.5655522932865</v>
+        <v>568.6313368561554</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -912,7 +912,7 @@
         <v>0.6800701390119338</v>
       </c>
       <c r="J14">
-        <v>0.9574481482531004</v>
+        <v>0.9574481482531003</v>
       </c>
       <c r="K14">
         <v>548.5151154189</v>
@@ -941,16 +941,16 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>131120.9324951308</v>
+        <v>135387.570704577</v>
       </c>
       <c r="I15">
-        <v>0.7168492312743917</v>
+        <v>0.6398979099566754</v>
       </c>
       <c r="J15">
-        <v>0.8611828012614886</v>
+        <v>1.076521324223859</v>
       </c>
       <c r="K15">
-        <v>547.4226649194472</v>
+        <v>517.1477831294521</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -976,16 +976,16 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>116674.2208062503</v>
+        <v>116665.2667017905</v>
       </c>
       <c r="I16">
-        <v>0.7204301116102035</v>
+        <v>0.7217730777776863</v>
       </c>
       <c r="J16">
-        <v>0.849208531112121</v>
+        <v>0.8474046000909569</v>
       </c>
       <c r="K16">
-        <v>532.776741742999</v>
+        <v>532.8429908926508</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1046,16 +1046,16 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>89326.9470131311</v>
+        <v>89302.76148110536</v>
       </c>
       <c r="I18">
-        <v>0.637752172465468</v>
+        <v>0.6380221723506552</v>
       </c>
       <c r="J18">
-        <v>0.8004514822436878</v>
+        <v>0.7984805567335876</v>
       </c>
       <c r="K18">
-        <v>568.6226522050505</v>
+        <v>568.8404877618564</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1081,16 +1081,16 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>81321.46121511873</v>
+        <v>81591.37346218218</v>
       </c>
       <c r="I19">
-        <v>0.4650791294239497</v>
+        <v>0.4667975000446192</v>
       </c>
       <c r="J19">
-        <v>0.8203423013185211</v>
+        <v>0.8272111357314158</v>
       </c>
       <c r="K19">
-        <v>566.4845915311032</v>
+        <v>563.9287234030903</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1116,16 +1116,16 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <v>76185.68396286709</v>
+        <v>76226.44337051469</v>
       </c>
       <c r="I20">
-        <v>0.4677395632872239</v>
+        <v>0.4699712602123129</v>
       </c>
       <c r="J20">
-        <v>0.9721141029221965</v>
+        <v>0.9097328452373349</v>
       </c>
       <c r="K20">
-        <v>549.5040930192924</v>
+        <v>549.112352824768</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1151,16 +1151,16 @@
         <v>11</v>
       </c>
       <c r="H21">
-        <v>72386.97769675215</v>
+        <v>72902.96215308421</v>
       </c>
       <c r="I21">
-        <v>0.4686930857557888</v>
+        <v>0.4739189242772116</v>
       </c>
       <c r="J21">
-        <v>0.8478542838580627</v>
+        <v>0.9239809887775057</v>
       </c>
       <c r="K21">
-        <v>528.8339972266708</v>
+        <v>523.9253796350375</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1256,16 +1256,16 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>19497.0378902076</v>
+        <v>19497.03998953893</v>
       </c>
       <c r="I24">
-        <v>0.1183511593436961</v>
+        <v>0.1183878717454386</v>
       </c>
       <c r="J24">
-        <v>2.236908802614221</v>
+        <v>2.23769915522126</v>
       </c>
       <c r="K24">
-        <v>211.0389270334433</v>
+        <v>211.0388449454968</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1291,16 +1291,16 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>18498.91778910179</v>
+        <v>18608.61712848158</v>
       </c>
       <c r="I25">
-        <v>0.1278241727595196</v>
+        <v>0.1148575188474163</v>
       </c>
       <c r="J25">
-        <v>2.020165835091659</v>
+        <v>2.174149464778059</v>
       </c>
       <c r="K25">
-        <v>189.0155345334045</v>
+        <v>185.465129319876</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1326,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="H26">
-        <v>17721.94886078761</v>
+        <v>17736.75605379071</v>
       </c>
       <c r="I26">
-        <v>0.1159444070640202</v>
+        <v>0.1103182369599405</v>
       </c>
       <c r="J26">
-        <v>2.114984887901716</v>
+        <v>2.105886848868269</v>
       </c>
       <c r="K26">
-        <v>172.231879752768</v>
+        <v>171.8122671003505</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1361,16 +1361,16 @@
         <v>7</v>
       </c>
       <c r="H27">
-        <v>16981.2737358723</v>
+        <v>16940.05386453692</v>
       </c>
       <c r="I27">
-        <v>0.1117495263482024</v>
+        <v>0.1136484748538613</v>
       </c>
       <c r="J27">
-        <v>2.027688199521502</v>
+        <v>2.046323569406959</v>
       </c>
       <c r="K27">
-        <v>161.698110950116</v>
+        <v>162.761124684802</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1396,16 +1396,16 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <v>16227.26014243623</v>
+        <v>16327.92896714495</v>
       </c>
       <c r="I28">
-        <v>0.1146915663171841</v>
+        <v>0.1130621048787672</v>
       </c>
       <c r="J28">
-        <v>2.053878203161895</v>
+        <v>2.017485334226964</v>
       </c>
       <c r="K28">
-        <v>155.9032918055742</v>
+        <v>153.4887981276848</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1431,16 +1431,16 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>15632.2925103279</v>
+        <v>15617.8932440423</v>
       </c>
       <c r="I29">
-        <v>0.1217965671520848</v>
+        <v>0.1207530650533786</v>
       </c>
       <c r="J29">
-        <v>1.926692499398391</v>
+        <v>1.95741696536544</v>
       </c>
       <c r="K29">
-        <v>149.3667010709979</v>
+        <v>149.6944546025442</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1466,16 +1466,16 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>15081.55715895208</v>
+        <v>15134.84570411223</v>
       </c>
       <c r="I30">
-        <v>0.1242525065829553</v>
+        <v>0.1213083785526977</v>
       </c>
       <c r="J30">
-        <v>1.891275221562838</v>
+        <v>1.902109852331713</v>
       </c>
       <c r="K30">
-        <v>144.2220348008385</v>
+        <v>143.0695217544972</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1501,16 +1501,16 @@
         <v>11</v>
       </c>
       <c r="H31">
-        <v>14620.00031233825</v>
+        <v>14641.48361606697</v>
       </c>
       <c r="I31">
-        <v>0.1242769745161731</v>
+        <v>0.1218977207276397</v>
       </c>
       <c r="J31">
-        <v>1.83882787492904</v>
+        <v>1.887032333500569</v>
       </c>
       <c r="K31">
-        <v>139.0160116547437</v>
+        <v>138.5703721624118</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1577,7 +1577,7 @@
         <v>0.4070214921858918</v>
       </c>
       <c r="J33">
-        <v>0.8501815925585556</v>
+        <v>0.8501815925585555</v>
       </c>
       <c r="K33">
         <v>1592.507558662976</v>
@@ -1606,16 +1606,16 @@
         <v>4</v>
       </c>
       <c r="H34">
-        <v>263013.5790021144</v>
+        <v>263020.0171643886</v>
       </c>
       <c r="I34">
-        <v>0.3889876944032775</v>
+        <v>0.3895722663548978</v>
       </c>
       <c r="J34">
-        <v>0.9034811942596277</v>
+        <v>0.8934575835494348</v>
       </c>
       <c r="K34">
-        <v>1560.019800128316</v>
+        <v>1559.96139411999</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1641,16 +1641,16 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>196179.0000306546</v>
+        <v>196179.714692186</v>
       </c>
       <c r="I35">
-        <v>0.4153359661310247</v>
+        <v>0.4154861877477135</v>
       </c>
       <c r="J35">
-        <v>0.7593102766089951</v>
+        <v>0.7586574985710447</v>
       </c>
       <c r="K35">
-        <v>1708.448943630459</v>
+        <v>1708.441214510156</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1676,16 +1676,16 @@
         <v>6</v>
       </c>
       <c r="H36">
-        <v>157843.9017629324</v>
+        <v>157800.2636061508</v>
       </c>
       <c r="I36">
-        <v>0.4061226522787386</v>
+        <v>0.4065755971870277</v>
       </c>
       <c r="J36">
-        <v>0.8308522523573473</v>
+        <v>0.8290858031889159</v>
       </c>
       <c r="K36">
-        <v>1778.002345167175</v>
+        <v>1778.544322488306</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1711,16 +1711,16 @@
         <v>7</v>
       </c>
       <c r="H37">
-        <v>125883.1952290029</v>
+        <v>125889.9754324339</v>
       </c>
       <c r="I37">
-        <v>0.4278704519076744</v>
+        <v>0.4280332279155792</v>
       </c>
       <c r="J37">
-        <v>0.7410573179855307</v>
+        <v>0.7410175611455394</v>
       </c>
       <c r="K37">
-        <v>1926.499554920704</v>
+        <v>1926.428639455962</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1746,16 +1746,16 @@
         <v>8</v>
       </c>
       <c r="H38">
-        <v>105684.6354435313</v>
+        <v>105684.1375490691</v>
       </c>
       <c r="I38">
-        <v>0.4314386865274933</v>
+        <v>0.4293333821993743</v>
       </c>
       <c r="J38">
-        <v>0.7349756867890708</v>
+        <v>0.7468436805100918</v>
       </c>
       <c r="K38">
-        <v>2010.739377354699</v>
+        <v>2010.777519465109</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1781,16 +1781,16 @@
         <v>9</v>
       </c>
       <c r="H39">
-        <v>93923.52539973523</v>
+        <v>93920.70343641758</v>
       </c>
       <c r="I39">
-        <v>0.4368410876357912</v>
+        <v>0.4367719549555006</v>
       </c>
       <c r="J39">
-        <v>0.7416546835880579</v>
+        <v>0.7418078423201252</v>
       </c>
       <c r="K39">
-        <v>2004.343820599017</v>
+        <v>2004.386336071556</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1816,16 +1816,16 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <v>82525.48094333621</v>
+        <v>82751.95426498818</v>
       </c>
       <c r="I40">
-        <v>0.4446019844804095</v>
+        <v>0.4408428998855401</v>
       </c>
       <c r="J40">
-        <v>0.7009281248954905</v>
+        <v>0.7106879428004332</v>
       </c>
       <c r="K40">
-        <v>2051.776722219961</v>
+        <v>2045.631177274843</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1851,16 +1851,16 @@
         <v>11</v>
       </c>
       <c r="H41">
-        <v>73273.937298669</v>
+        <v>73267.81533410129</v>
       </c>
       <c r="I41">
-        <v>0.4325873946500577</v>
+        <v>0.4324174876021626</v>
       </c>
       <c r="J41">
-        <v>0.7330455991344679</v>
+        <v>0.7341396293438386</v>
       </c>
       <c r="K41">
-        <v>2099.350310198015</v>
+        <v>2099.490022505223</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>413903.5418650723</v>
+        <v>413907.0787279516</v>
       </c>
       <c r="I43">
         <v>0.425430964357399</v>
@@ -1956,16 +1956,16 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>313615.1536443179</v>
+        <v>313614.8567788783</v>
       </c>
       <c r="I44">
-        <v>0.3908465670854797</v>
+        <v>0.3914653882374153</v>
       </c>
       <c r="J44">
-        <v>0.8361925364215023</v>
+        <v>0.8339116548338137</v>
       </c>
       <c r="K44">
-        <v>2365.859019798795</v>
+        <v>2365.861781190903</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2000,7 +2000,7 @@
         <v>0.7725779675398854</v>
       </c>
       <c r="K45">
-        <v>2460.528475542203</v>
+        <v>2460.528475542202</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2061,16 +2061,16 @@
         <v>7</v>
       </c>
       <c r="H47">
-        <v>144770.5628559058</v>
+        <v>144771.455956866</v>
       </c>
       <c r="I47">
-        <v>0.4427091567264609</v>
+        <v>0.4427154723698215</v>
       </c>
       <c r="J47">
-        <v>0.7394125534307109</v>
+        <v>0.7388931190447146</v>
       </c>
       <c r="K47">
-        <v>2878.845870018205</v>
+        <v>2878.857092762293</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2096,16 +2096,16 @@
         <v>8</v>
       </c>
       <c r="H48">
-        <v>120390.6644277842</v>
+        <v>120388.8868080514</v>
       </c>
       <c r="I48">
-        <v>0.4486448570047543</v>
+        <v>0.4486584133014965</v>
       </c>
       <c r="J48">
-        <v>0.7537482570396296</v>
+        <v>0.753482785999072</v>
       </c>
       <c r="K48">
-        <v>3013.220156764163</v>
+        <v>3013.268129381307</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2131,16 +2131,16 @@
         <v>9</v>
       </c>
       <c r="H49">
-        <v>105015.0509419958</v>
+        <v>105005.5894052477</v>
       </c>
       <c r="I49">
-        <v>0.4380842009727219</v>
+        <v>0.4378283663156826</v>
       </c>
       <c r="J49">
-        <v>0.7684752498666663</v>
+        <v>0.7689186653717793</v>
       </c>
       <c r="K49">
-        <v>3051.155423601704</v>
+        <v>3051.362829207874</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2166,16 +2166,16 @@
         <v>10</v>
       </c>
       <c r="H50">
-        <v>93776.54764692516</v>
+        <v>93799.28831548424</v>
       </c>
       <c r="I50">
-        <v>0.4372962750090219</v>
+        <v>0.4378003134300309</v>
       </c>
       <c r="J50">
-        <v>0.7610206791815305</v>
+        <v>0.7614176871034044</v>
       </c>
       <c r="K50">
-        <v>3057.185548027323</v>
+        <v>3056.323616016165</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2201,16 +2201,16 @@
         <v>11</v>
       </c>
       <c r="H51">
-        <v>85023.86202377126</v>
+        <v>84593.03673208717</v>
       </c>
       <c r="I51">
-        <v>0.4391023876581395</v>
+        <v>0.4409156395480077</v>
       </c>
       <c r="J51">
-        <v>0.7577542929437169</v>
+        <v>0.7563965792633881</v>
       </c>
       <c r="K51">
-        <v>3049.809702486465</v>
+        <v>3066.075931560111</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2271,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="H53">
-        <v>5230.820525471934</v>
+        <v>5230.775952004307</v>
       </c>
       <c r="I53">
         <v>0.4679025302134224</v>
@@ -2341,16 +2341,16 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>2519.00282826958</v>
+        <v>2519.393740951162</v>
       </c>
       <c r="I55">
-        <v>0.5053634777007382</v>
+        <v>0.5049127444888043</v>
       </c>
       <c r="J55">
-        <v>0.6680157111847389</v>
+        <v>0.6668244582131125</v>
       </c>
       <c r="K55">
-        <v>2776.33663703163</v>
+        <v>2775.91241343046</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2376,16 +2376,16 @@
         <v>6</v>
       </c>
       <c r="H56">
-        <v>2092.648488071423</v>
+        <v>2102.217990962139</v>
       </c>
       <c r="I56">
-        <v>0.4810392049877096</v>
+        <v>0.4714716081931122</v>
       </c>
       <c r="J56">
-        <v>0.7425219063380627</v>
+        <v>0.7648607630204548</v>
       </c>
       <c r="K56">
-        <v>2739.423726095864</v>
+        <v>2725.344589481829</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2411,16 +2411,16 @@
         <v>7</v>
       </c>
       <c r="H57">
-        <v>1754.281936656359</v>
+        <v>1753.445310061579</v>
       </c>
       <c r="I57">
-        <v>0.4547532974698797</v>
+        <v>0.4562815776478525</v>
       </c>
       <c r="J57">
-        <v>0.8176141318331152</v>
+        <v>0.8130103678122788</v>
       </c>
       <c r="K57">
-        <v>2774.84067054746</v>
+        <v>2775.962699662542</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2446,16 +2446,16 @@
         <v>8</v>
       </c>
       <c r="H58">
-        <v>1454.625304894646</v>
+        <v>1454.988826766447</v>
       </c>
       <c r="I58">
-        <v>0.4760879975666576</v>
+        <v>0.4760321669403834</v>
       </c>
       <c r="J58">
-        <v>0.7285977323609624</v>
+        <v>0.7307799135552946</v>
       </c>
       <c r="K58">
-        <v>2914.82545294498</v>
+        <v>2914.365516344302</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2481,16 +2481,16 @@
         <v>9</v>
       </c>
       <c r="H59">
-        <v>1221.669871128335</v>
+        <v>1221.629894241962</v>
       </c>
       <c r="I59">
-        <v>0.4708396555337983</v>
+        <v>0.4708621599609304</v>
       </c>
       <c r="J59">
-        <v>0.7306994459785602</v>
+        <v>0.7298249285744579</v>
       </c>
       <c r="K59">
-        <v>3074.276495810489</v>
+        <v>3074.383844393295</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2516,16 +2516,16 @@
         <v>10</v>
       </c>
       <c r="H60">
-        <v>1046.126606698816</v>
+        <v>1046.209184152639</v>
       </c>
       <c r="I60">
-        <v>0.4650932214748224</v>
+        <v>0.464443080577123</v>
       </c>
       <c r="J60">
-        <v>0.7323069090109255</v>
+        <v>0.7309931600232107</v>
       </c>
       <c r="K60">
-        <v>3220.102394444709</v>
+        <v>3219.76678494832</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2551,16 +2551,16 @@
         <v>11</v>
       </c>
       <c r="H61">
-        <v>950.0987127930317</v>
+        <v>946.6073943619178</v>
       </c>
       <c r="I61">
-        <v>0.4626222654385982</v>
+        <v>0.4690332544810037</v>
       </c>
       <c r="J61">
-        <v>0.7388297468372446</v>
+        <v>0.7296538480700945</v>
       </c>
       <c r="K61">
-        <v>3205.650482647221</v>
+        <v>3218.08115541553</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>7440.190091623698</v>
+        <v>7440.204998265279</v>
       </c>
       <c r="I62">
         <v>0.3963865938849873</v>
@@ -2630,7 +2630,7 @@
         <v>0.7756652056208151</v>
       </c>
       <c r="K63">
-        <v>1630.685163416152</v>
+        <v>1630.685163416153</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2656,16 +2656,16 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>3360.250026509076</v>
+        <v>3360.206053679642</v>
       </c>
       <c r="I64">
-        <v>0.4267282041748222</v>
+        <v>0.4272573430445895</v>
       </c>
       <c r="J64">
-        <v>0.7936856345624517</v>
+        <v>0.7918172586205001</v>
       </c>
       <c r="K64">
-        <v>1618.68688106805</v>
+        <v>1618.742707259786</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2691,16 +2691,16 @@
         <v>5</v>
       </c>
       <c r="H65">
-        <v>2578.155925962442</v>
+        <v>2578.118089845973</v>
       </c>
       <c r="I65">
-        <v>0.4189560588078275</v>
+        <v>0.4188490023994848</v>
       </c>
       <c r="J65">
-        <v>0.7949290640256448</v>
+        <v>0.794874201465537</v>
       </c>
       <c r="K65">
-        <v>1706.699603021164</v>
+        <v>1706.729441963557</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2726,16 +2726,16 @@
         <v>6</v>
       </c>
       <c r="H66">
-        <v>2043.201574735839</v>
+        <v>2041.748745735326</v>
       </c>
       <c r="I66">
-        <v>0.4271874926916083</v>
+        <v>0.4301132047336693</v>
       </c>
       <c r="J66">
-        <v>0.7646482543605456</v>
+        <v>0.7560599943876927</v>
       </c>
       <c r="K66">
-        <v>1808.352028360213</v>
+        <v>1809.814009964017</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2761,16 +2761,16 @@
         <v>7</v>
       </c>
       <c r="H67">
-        <v>1665.661363081707</v>
+        <v>1665.679710776639</v>
       </c>
       <c r="I67">
-        <v>0.4326662868262554</v>
+        <v>0.4326274991653075</v>
       </c>
       <c r="J67">
-        <v>0.7680848222285397</v>
+        <v>0.7685693028606698</v>
       </c>
       <c r="K67">
-        <v>1909.718279741127</v>
+        <v>1909.694212927923</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2796,16 +2796,16 @@
         <v>8</v>
       </c>
       <c r="H68">
-        <v>1374.644692911326</v>
+        <v>1374.629434617165</v>
       </c>
       <c r="I68">
-        <v>0.4435626556351458</v>
+        <v>0.4443452241423637</v>
       </c>
       <c r="J68">
-        <v>0.703611646005632</v>
+        <v>0.7030432987300828</v>
       </c>
       <c r="K68">
-        <v>2032.138742200091</v>
+        <v>2032.178461604727</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2831,16 +2831,16 @@
         <v>9</v>
       </c>
       <c r="H69">
-        <v>1175.847285670346</v>
+        <v>1175.841414270681</v>
       </c>
       <c r="I69">
-        <v>0.4595605306896136</v>
+        <v>0.4595356837181343</v>
       </c>
       <c r="J69">
-        <v>0.702224301599091</v>
+        <v>0.70221365410206</v>
       </c>
       <c r="K69">
-        <v>2112.332873470807</v>
+        <v>2112.344450365967</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2866,16 +2866,16 @@
         <v>10</v>
       </c>
       <c r="H70">
-        <v>1038.119923614735</v>
+        <v>1039.844483718187</v>
       </c>
       <c r="I70">
-        <v>0.448578040585668</v>
+        <v>0.4465711108651097</v>
       </c>
       <c r="J70">
-        <v>0.7053660966638785</v>
+        <v>0.7015290844572701</v>
       </c>
       <c r="K70">
-        <v>2149.767740295827</v>
+        <v>2146.120465116008</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2901,16 +2901,16 @@
         <v>11</v>
       </c>
       <c r="H71">
-        <v>934.789928269211</v>
+        <v>917.0536547641108</v>
       </c>
       <c r="I71">
-        <v>0.4380831898365957</v>
+        <v>0.4531941514583456</v>
       </c>
       <c r="J71">
-        <v>0.7269121516090475</v>
+        <v>0.6911920612160339</v>
       </c>
       <c r="K71">
-        <v>2165.598813189637</v>
+        <v>2210.627391127871</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2971,16 +2971,16 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>6270.315872536201</v>
+        <v>6270.254296936708</v>
       </c>
       <c r="I73">
-        <v>0.5104219121550883</v>
+        <v>0.5106755391847093</v>
       </c>
       <c r="J73">
-        <v>0.7053152744865172</v>
+        <v>0.7048680529891315</v>
       </c>
       <c r="K73">
-        <v>2397.560822490157</v>
+        <v>2397.592959890492</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3006,16 +3006,16 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>3958.554985014088</v>
+        <v>3958.478785561584</v>
       </c>
       <c r="I74">
-        <v>0.5518548618629521</v>
+        <v>0.5508941034290468</v>
       </c>
       <c r="J74">
-        <v>0.615769926631474</v>
+        <v>0.61700884292029</v>
       </c>
       <c r="K74">
-        <v>2852.261279283302</v>
+        <v>2852.323644890134</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3076,16 +3076,16 @@
         <v>6</v>
       </c>
       <c r="H76">
-        <v>2197.183438209734</v>
+        <v>2197.316432096687</v>
       </c>
       <c r="I76">
-        <v>0.5103632401648941</v>
+        <v>0.5101732881190026</v>
       </c>
       <c r="J76">
-        <v>0.7226472900148658</v>
+        <v>0.7234047003994254</v>
       </c>
       <c r="K76">
-        <v>3344.419930545386</v>
+        <v>3344.377441319499</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3111,16 +3111,16 @@
         <v>7</v>
       </c>
       <c r="H77">
-        <v>1741.398098802096</v>
+        <v>1741.875188751487</v>
       </c>
       <c r="I77">
-        <v>0.526133500978563</v>
+        <v>0.5261091004483759</v>
       </c>
       <c r="J77">
-        <v>0.587952008012694</v>
+        <v>0.5871799400570749</v>
       </c>
       <c r="K77">
-        <v>3586.352948782268</v>
+        <v>3585.526903203434</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3146,7 +3146,7 @@
         <v>8</v>
       </c>
       <c r="H78">
-        <v>1337.963024779548</v>
+        <v>1337.963024779549</v>
       </c>
       <c r="I78">
         <v>0.522395918597686</v>
@@ -3181,16 +3181,16 @@
         <v>9</v>
       </c>
       <c r="H79">
-        <v>1150.291955537531</v>
+        <v>1137.328344972109</v>
       </c>
       <c r="I79">
-        <v>0.5020913201186721</v>
+        <v>0.516819022628363</v>
       </c>
       <c r="J79">
-        <v>0.6116619561376764</v>
+        <v>0.6023650602439211</v>
       </c>
       <c r="K79">
-        <v>4172.936099495417</v>
+        <v>4222.965995783373</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3251,16 +3251,16 @@
         <v>11</v>
       </c>
       <c r="H81">
-        <v>846.2392839852134</v>
+        <v>854.1422724898375</v>
       </c>
       <c r="I81">
-        <v>0.4941213933062697</v>
+        <v>0.5020220406006587</v>
       </c>
       <c r="J81">
-        <v>0.6543819172802015</v>
+        <v>0.6435044375154999</v>
       </c>
       <c r="K81">
-        <v>4591.625510967199</v>
+        <v>4547.52354793361</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3330,7 +3330,7 @@
         <v>1.480857493323096</v>
       </c>
       <c r="K83">
-        <v>468.4326574061158</v>
+        <v>468.4326574061157</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3356,16 +3356,16 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>227.3823220668394</v>
+        <v>227.3366894448225</v>
       </c>
       <c r="I84">
-        <v>0.2521770728009642</v>
+        <v>0.2538885321349239</v>
       </c>
       <c r="J84">
-        <v>1.441476152454704</v>
+        <v>1.437560920495804</v>
       </c>
       <c r="K84">
-        <v>412.2723076153797</v>
+        <v>412.4657293287626</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3391,16 +3391,16 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <v>207.5928762007705</v>
+        <v>207.6159694318127</v>
       </c>
       <c r="I85">
-        <v>0.2067705592890359</v>
+        <v>0.2069455739795919</v>
       </c>
       <c r="J85">
-        <v>1.438191649535848</v>
+        <v>1.434663480625144</v>
       </c>
       <c r="K85">
-        <v>377.8696952827941</v>
+        <v>377.7816986322713</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3426,16 +3426,16 @@
         <v>6</v>
       </c>
       <c r="H86">
-        <v>191.5383249199986</v>
+        <v>191.5138016336844</v>
       </c>
       <c r="I86">
-        <v>0.2173374661800647</v>
+        <v>0.216763105894258</v>
       </c>
       <c r="J86">
-        <v>1.417251640039635</v>
+        <v>1.414796475990101</v>
       </c>
       <c r="K86">
-        <v>355.1294776019399</v>
+        <v>355.2172594511464</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3461,16 +3461,16 @@
         <v>7</v>
       </c>
       <c r="H87">
-        <v>179.6881531260426</v>
+        <v>179.8141034571213</v>
       </c>
       <c r="I87">
-        <v>0.2233222133567829</v>
+        <v>0.2221747139216058</v>
       </c>
       <c r="J87">
-        <v>1.357638392913888</v>
+        <v>1.356954370832973</v>
       </c>
       <c r="K87">
-        <v>333.4140095080919</v>
+        <v>332.9877307225092</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3496,16 +3496,16 @@
         <v>8</v>
       </c>
       <c r="H88">
-        <v>168.4213527873965</v>
+        <v>168.2050961318235</v>
       </c>
       <c r="I88">
-        <v>0.2262792920638171</v>
+        <v>0.2271827935697798</v>
       </c>
       <c r="J88">
-        <v>1.351730682804602</v>
+        <v>1.342141343942972</v>
       </c>
       <c r="K88">
-        <v>320.4851364002608</v>
+        <v>321.2002266658017</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3531,16 +3531,16 @@
         <v>9</v>
       </c>
       <c r="H89">
-        <v>160.8155915653913</v>
+        <v>160.848823025492</v>
       </c>
       <c r="I89">
-        <v>0.2317005087185272</v>
+        <v>0.2301061081687419</v>
       </c>
       <c r="J89">
-        <v>1.290023024668135</v>
+        <v>1.292703470942148</v>
       </c>
       <c r="K89">
-        <v>303.2578236196594</v>
+        <v>303.152584832948</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3566,16 +3566,16 @@
         <v>10</v>
       </c>
       <c r="H90">
-        <v>155.5068507893722</v>
+        <v>155.3639092414269</v>
       </c>
       <c r="I90">
-        <v>0.230928068077079</v>
+        <v>0.2323530959041652</v>
       </c>
       <c r="J90">
-        <v>1.308655016316373</v>
+        <v>1.345814037838248</v>
       </c>
       <c r="K90">
-        <v>284.8469705132888</v>
+        <v>285.2775122838152</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3601,16 +3601,16 @@
         <v>11</v>
       </c>
       <c r="H91">
-        <v>150.9798036187364</v>
+        <v>148.8417515518729</v>
       </c>
       <c r="I91">
-        <v>0.2299463080589223</v>
+        <v>0.2254734471141866</v>
       </c>
       <c r="J91">
-        <v>1.332165732933054</v>
+        <v>1.354339797160571</v>
       </c>
       <c r="K91">
-        <v>268.8273723702514</v>
+        <v>275.0548192047182</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3706,16 +3706,16 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>167958.6332795501</v>
+        <v>167843.6068666511</v>
       </c>
       <c r="I94">
-        <v>0.6842137464355246</v>
+        <v>0.6622108308761034</v>
       </c>
       <c r="J94">
-        <v>0.9719564309714346</v>
+        <v>0.9989640788753742</v>
       </c>
       <c r="K94">
-        <v>498.987474668771</v>
+        <v>499.7072794751209</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3741,16 +3741,16 @@
         <v>5</v>
       </c>
       <c r="H95">
-        <v>147411.2174531905</v>
+        <v>148471.2115393214</v>
       </c>
       <c r="I95">
-        <v>0.6725189491834317</v>
+        <v>0.7167788235509549</v>
       </c>
       <c r="J95">
-        <v>0.9322223607629312</v>
+        <v>0.7059125994812618</v>
       </c>
       <c r="K95">
-        <v>483.7498701718534</v>
+        <v>477.3458370412232</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3776,16 +3776,16 @@
         <v>6</v>
       </c>
       <c r="H96">
-        <v>131547.1201707981</v>
+        <v>131487.4899745594</v>
       </c>
       <c r="I96">
-        <v>0.5910292035312406</v>
+        <v>0.6891847905398136</v>
       </c>
       <c r="J96">
-        <v>0.9613307919236881</v>
+        <v>0.8793988956485282</v>
       </c>
       <c r="K96">
-        <v>473.2533227051439</v>
+        <v>473.6177832735979</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3846,16 +3846,16 @@
         <v>8</v>
       </c>
       <c r="H98">
-        <v>103995.2298240069</v>
+        <v>104266.6995898763</v>
       </c>
       <c r="I98">
-        <v>0.5884785062295622</v>
+        <v>0.5891119634091936</v>
       </c>
       <c r="J98">
-        <v>0.8420438781548865</v>
+        <v>0.8462041159462043</v>
       </c>
       <c r="K98">
-        <v>489.5270283312751</v>
+        <v>487.6387831820845</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3881,16 +3881,16 @@
         <v>9</v>
       </c>
       <c r="H99">
-        <v>96263.37035390062</v>
+        <v>95977.20204743116</v>
       </c>
       <c r="I99">
-        <v>0.4022120300663829</v>
+        <v>0.4017228753006824</v>
       </c>
       <c r="J99">
-        <v>0.9011376945730546</v>
+        <v>0.8906839678459462</v>
       </c>
       <c r="K99">
-        <v>479.0155256779968</v>
+        <v>481.0583598067723</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3916,16 +3916,16 @@
         <v>10</v>
       </c>
       <c r="H100">
-        <v>90829.64866268099</v>
+        <v>91156.01904460315</v>
       </c>
       <c r="I100">
-        <v>0.4026778822833966</v>
+        <v>0.4030217244809824</v>
       </c>
       <c r="J100">
-        <v>1.040557441603711</v>
+        <v>0.9896873880945231</v>
       </c>
       <c r="K100">
-        <v>461.9444364312641</v>
+        <v>459.6349123030836</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3951,16 +3951,16 @@
         <v>11</v>
       </c>
       <c r="H101">
-        <v>86697.65243794587</v>
+        <v>87805.55189982655</v>
       </c>
       <c r="I101">
-        <v>0.4028621443702687</v>
+        <v>0.400744643684179</v>
       </c>
       <c r="J101">
-        <v>0.9953438402622292</v>
+        <v>1.024666583342802</v>
       </c>
       <c r="K101">
-        <v>443.1498475562626</v>
+        <v>435.4802127274756</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3986,16 +3986,16 @@
         <v>2</v>
       </c>
       <c r="H102">
-        <v>24621.70060984756</v>
+        <v>24621.70963064938</v>
       </c>
       <c r="I102">
-        <v>0.1645662522628238</v>
+        <v>0.1644120897837806</v>
       </c>
       <c r="J102">
-        <v>2.04635929653891</v>
+        <v>2.048753822754451</v>
       </c>
       <c r="K102">
-        <v>239.7267306439304</v>
+        <v>239.7260360952856</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4021,16 +4021,16 @@
         <v>3</v>
       </c>
       <c r="H103">
-        <v>22230.98759259746</v>
+        <v>22230.48914263715</v>
       </c>
       <c r="I103">
-        <v>0.1864100562685214</v>
+        <v>0.1868598584278495</v>
       </c>
       <c r="J103">
-        <v>1.902918872822948</v>
+        <v>1.892856257364856</v>
       </c>
       <c r="K103">
-        <v>221.6623416571234</v>
+        <v>221.6858658775841</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4091,16 +4091,16 @@
         <v>5</v>
       </c>
       <c r="H105">
-        <v>19823.02513180269</v>
+        <v>19820.47811394398</v>
       </c>
       <c r="I105">
-        <v>0.1095977272120401</v>
+        <v>0.1099057510674086</v>
       </c>
       <c r="J105">
-        <v>2.245352509471524</v>
+        <v>2.236520132415446</v>
       </c>
       <c r="K105">
-        <v>174.3435202540095</v>
+        <v>174.4181900930303</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4126,16 +4126,16 @@
         <v>6</v>
       </c>
       <c r="H106">
-        <v>19074.47719299192</v>
+        <v>19074.63071782709</v>
       </c>
       <c r="I106">
-        <v>0.09393105149787571</v>
+        <v>0.09399292342263996</v>
       </c>
       <c r="J106">
-        <v>2.27465015537916</v>
+        <v>2.275528070116679</v>
       </c>
       <c r="K106">
-        <v>157.8259317399022</v>
+        <v>157.8220021851543</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4161,16 +4161,16 @@
         <v>7</v>
       </c>
       <c r="H107">
-        <v>18103.79660564831</v>
+        <v>18152.12150742216</v>
       </c>
       <c r="I107">
-        <v>0.1053361299151478</v>
+        <v>0.1093701079509056</v>
       </c>
       <c r="J107">
-        <v>2.140654484024379</v>
+        <v>2.132280572677586</v>
       </c>
       <c r="K107">
-        <v>153.24334232818</v>
+        <v>152.1028215579138</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4196,16 +4196,16 @@
         <v>8</v>
       </c>
       <c r="H108">
-        <v>17438.1897359168</v>
+        <v>17432.24404312731</v>
       </c>
       <c r="I108">
-        <v>0.1080724009684235</v>
+        <v>0.1085489190043874</v>
       </c>
       <c r="J108">
-        <v>2.128327249966458</v>
+        <v>2.087731211513027</v>
       </c>
       <c r="K108">
-        <v>145.2795535406445</v>
+        <v>145.4095007991443</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4231,16 +4231,16 @@
         <v>9</v>
       </c>
       <c r="H109">
-        <v>16844.11759836648</v>
+        <v>16998.23193206815</v>
       </c>
       <c r="I109">
-        <v>0.1122652657290636</v>
+        <v>0.1065277892658728</v>
       </c>
       <c r="J109">
-        <v>2.0130071729118</v>
+        <v>2.077760087774245</v>
       </c>
       <c r="K109">
-        <v>138.7929938380052</v>
+        <v>135.6657976087445</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4266,16 +4266,16 @@
         <v>10</v>
       </c>
       <c r="H110">
-        <v>16287.76079094426</v>
+        <v>16327.90841635774</v>
       </c>
       <c r="I110">
-        <v>0.114720499620603</v>
+        <v>0.114924243106825</v>
       </c>
       <c r="J110">
-        <v>1.973924823983935</v>
+        <v>1.967030109325645</v>
       </c>
       <c r="K110">
-        <v>133.7630033864019</v>
+        <v>132.983862364314</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4301,16 +4301,16 @@
         <v>11</v>
       </c>
       <c r="H111">
-        <v>15841.79737032301</v>
+        <v>15816.47372901504</v>
       </c>
       <c r="I111">
-        <v>0.1122184966520025</v>
+        <v>0.1181677998481129</v>
       </c>
       <c r="J111">
-        <v>1.959959005120768</v>
+        <v>1.925142767510588</v>
       </c>
       <c r="K111">
-        <v>128.3370898883262</v>
+        <v>128.8062694463875</v>
       </c>
     </row>
   </sheetData>
